--- a/routed_tickets.xlsx
+++ b/routed_tickets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,6 +636,56 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>219</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Network connection issue
+</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Resolution:
+1.  Clear the application's cache and log out, then log back in.
+2.  Verify that the application has the necessary permissions for Local Network access in your device's settings.
+3.  If the issue persists, reinstall the application.
+</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>783</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Network connectivity problem
+Device compatibility failure
+</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Resolution:
+1.  **Clear Application Cache and Re-authenticate:** Navigate to your device's application settings, locate the application in question, and clear its cached data. Subsequently, log out and then log back into the application to refresh your session and network connection.
+2.  **Verify Local Network Permissions:** Access your device's privacy or permissions settings and ensure the application has been granted permission to access your local network. This is crucial for proper device discovery and communication.
+3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/routed_tickets.xlsx
+++ b/routed_tickets.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,6 +686,31 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>569</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Network connection failure
+</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Resolution:
+1.  **Verify Local Network Permissions:** Ensure the application has the necessary permissions to access your local network in your device's settings.
+2.  **Clear Application Cache:** Clear the application's cache and data, then log back into the application.
+3.  **Reinstall the Application:** If the issue persists, uninstall and then reinstall the application.
+</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
